--- a/참조자료/요구사항정의서_2019_12_30.xlsx
+++ b/참조자료/요구사항정의서_2019_12_30.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\900. 프로젝트 계획서 모음\TodoList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\spring\참조자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 요구사항" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'시스템 요구사항'!#REF!</definedName>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'시스템 요구사항'!$A$1:$J$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'시스템 요구사항'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>R1</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -116,30 +117,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[솔루션도입]
-장애알림서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ○ WAS에서 구동 가능한 JAVA 웹페이지 형식 솔루션
- ○ 웹서비스 상태 상시 모니터링 기능
- ○ 장애공지솔루션 관리자 기능 제공(통계, 제어, 편집 등)
- ○ 웹서비스 장애 시 장애공지시스템이 자동적으로 L4스위치와 기능을 연동하여
-    장애 알림 웹페이지를 표시할 수 있는 기능
- ○ 사전 계획에 의하여 웹서비스가 중단되는 경우 중단 사유, 중단 기간 등을 
-    사전에 등록하여 지정된 기간 동안 자동으로 서비스 중단 안내 웹페이지를 
-    표시하는 기능
- ○ 홈페이지가 정상적으로 서비스 되는 상태에서도 장애공지솔루션이 L4스위치와
-    기능을 연동하여 강제로 서비스 중단(또는 장애 알림) 웹페이지를 표시할 수
-    있는 기능
- ○ 등록 서비스별 체크 시간 제어 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ECR-01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -154,12 +131,137 @@
   <si>
     <t>수용</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODOLIST
+(입력사항)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임스탬프</t>
+  </si>
+  <si>
+    <t>할일제목</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>예정일</t>
+  </si>
+  <si>
+    <t>실행일</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>완료 시간 변경하기</t>
+  </si>
+  <si>
+    <t>장소</t>
+  </si>
+  <si>
+    <t>중요도 순으로 나열하기</t>
+  </si>
+  <si>
+    <t>일정의 중요도</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+  </si>
+  <si>
+    <t>성공 여부 체크박스</t>
+  </si>
+  <si>
+    <t>알림</t>
+  </si>
+  <si>
+    <t>버킷리스트</t>
+  </si>
+  <si>
+    <t>세부내용</t>
+  </si>
+  <si>
+    <t>주/월별 일정표시</t>
+  </si>
+  <si>
+    <t>미 체크 알람</t>
+  </si>
+  <si>
+    <t>일정 수 따라 색 구별</t>
+  </si>
+  <si>
+    <t>일정 확인 체크</t>
+  </si>
+  <si>
+    <t>D-day 표시</t>
+  </si>
+  <si>
+    <t>정시 알람 연동</t>
+  </si>
+  <si>
+    <t>로그인 회원가입</t>
+  </si>
+  <si>
+    <t>카타오톡으로 사용자에게 알림</t>
+  </si>
+  <si>
+    <t>장소를 지도로 표시하는 기능</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:30:54</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:39:01</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:39:37</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:39:54</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:40:02</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:40:07</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:40:08</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:40:29</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:44:08</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 2:54:04</t>
+  </si>
+  <si>
+    <t>2019. 12. 30 오후 3:00:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 할일제목
+ ○ 날짜
+ ○ 내용
+ ○ 알림
+ ○ 카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -227,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,31 +352,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,8 +406,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,210 +709,210 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="60.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="18.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="16">
         <v>43414</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="153" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:10" ht="73.5" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="134.25" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="177" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="F8" s="15"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="F9" s="15"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="F10" s="15"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="F11" s="15"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="F12" s="15"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="F13" s="15"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="F14" s="15"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="F15" s="15"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="F16" s="15"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="15"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="15"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="15"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="15"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="15"/>
+      <c r="F21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -814,4 +934,1105 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15" thickBot="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>SUM(C5:O5)</f>
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f>SUM(C6:O6)</f>
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <f>SUM(C7:O7)</f>
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <f>SUM(C8:O8)</f>
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <f>SUM(C9:O9)</f>
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <f>SUM(C10:O10)</f>
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <f>SUM(C11:O11)</f>
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>SUM(C12:O12)</f>
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <f>SUM(C13:O13)</f>
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <f>SUM(C14:O14)</f>
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>SUM(C15:O15)</f>
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>SUM(C16:O16)</f>
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <f>SUM(C17:O17)</f>
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <f>SUM(C18:O18)</f>
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <f>SUM(C19:O19)</f>
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <f>SUM(C20:O20)</f>
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <f>SUM(C21:O21)</f>
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <f>SUM(C22:O22)</f>
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <f>SUM(C23:O23)</f>
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <f>SUM(C24:O24)</f>
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <f>SUM(C25:O25)</f>
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <f>SUM(C26:O26)</f>
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <f>SUM(C27:O27)</f>
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <f>SUM(C28:O28)</f>
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A5:N28">
+    <sortCondition descending="1" ref="B5:B28"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>